--- a/Doc/рассчет.xlsx
+++ b/Doc/рассчет.xlsx
@@ -894,8 +894,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.583484756713103E-2"/>
-          <c:y val="3.0776215343144488E-2"/>
-          <c:w val="0.6720635401344065"/>
+          <c:y val="3.0776215343144491E-2"/>
+          <c:w val="0.67206354013440661"/>
           <c:h val="0.93844756931371109"/>
         </c:manualLayout>
       </c:layout>
@@ -923,7 +923,6 @@
             <c:order val="3"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1055,23 +1054,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="131057536"/>
-        <c:axId val="131059072"/>
+        <c:axId val="96531968"/>
+        <c:axId val="96533504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="131057536"/>
+        <c:axId val="96531968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131059072"/>
+        <c:crossAx val="96533504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="131059072"/>
+        <c:axId val="96533504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1079,20 +1078,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131057536"/>
+        <c:crossAx val="96531968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1102,9 +1100,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1130,7 +1126,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.28183256943628326"/>
+                  <c:x val="0.28183256943628332"/>
                   <c:y val="-0.1839965706292444"/>
                 </c:manualLayout>
               </c:layout>
@@ -1199,23 +1195,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="164179328"/>
-        <c:axId val="164201600"/>
+        <c:axId val="87830912"/>
+        <c:axId val="87832448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164179328"/>
+        <c:axId val="87830912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164201600"/>
+        <c:crossAx val="87832448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164201600"/>
+        <c:axId val="87832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1223,20 +1219,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164179328"/>
+        <c:crossAx val="87830912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1466,23 +1461,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="88086400"/>
-        <c:axId val="88084480"/>
+        <c:axId val="87853696"/>
+        <c:axId val="88281472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88086400"/>
+        <c:axId val="87853696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88084480"/>
+        <c:crossAx val="88281472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88084480"/>
+        <c:axId val="88281472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1490,7 +1485,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88086400"/>
+        <c:crossAx val="87853696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1503,7 +1498,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2245,23 +2240,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="164366208"/>
-        <c:axId val="164367744"/>
+        <c:axId val="88421120"/>
+        <c:axId val="88422656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164366208"/>
+        <c:axId val="88421120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164367744"/>
+        <c:crossAx val="88422656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164367744"/>
+        <c:axId val="88422656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,20 +2264,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164366208"/>
+        <c:crossAx val="88421120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -20906,8 +20900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20980,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <f>SQRT(G10/440)</f>
+        <f t="shared" ref="I10:I21" si="0">SQRT(G10/440)</f>
         <v>0</v>
       </c>
     </row>
@@ -20996,7 +20990,7 @@
         <v>0.91</v>
       </c>
       <c r="I11">
-        <f>SQRT(G11/440)</f>
+        <f t="shared" si="0"/>
         <v>0.91185831552009688</v>
       </c>
     </row>
@@ -21005,14 +20999,14 @@
         <v>0.1</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G21" si="0">F12*30000/4.1</f>
+        <f t="shared" ref="G12:G21" si="1">F12*30000/4.1</f>
         <v>731.70731707317077</v>
       </c>
       <c r="H12">
         <v>1.29</v>
       </c>
       <c r="I12">
-        <f>SQRT(G12/440)</f>
+        <f t="shared" si="0"/>
         <v>1.289562396771206</v>
       </c>
     </row>
@@ -21021,14 +21015,14 @@
         <v>0.2</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1463.4146341463415</v>
       </c>
       <c r="H13">
         <v>1.82</v>
       </c>
       <c r="I13">
-        <f>SQRT(G13/440)</f>
+        <f t="shared" si="0"/>
         <v>1.8237166310401938</v>
       </c>
     </row>
@@ -21037,14 +21031,14 @@
         <v>0.3</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2195.1219512195125</v>
       </c>
       <c r="H14">
         <v>2.23</v>
       </c>
       <c r="I14">
-        <f>SQRT(G14/440)</f>
+        <f t="shared" si="0"/>
         <v>2.2335875907380243</v>
       </c>
     </row>
@@ -21053,14 +21047,14 @@
         <v>0.4</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2926.8292682926831</v>
       </c>
       <c r="H15">
         <v>2.58</v>
       </c>
       <c r="I15">
-        <f>SQRT(G15/440)</f>
+        <f t="shared" si="0"/>
         <v>2.579124793542412</v>
       </c>
     </row>
@@ -21069,14 +21063,14 @@
         <v>0.5</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3658.5365853658541</v>
       </c>
       <c r="H16">
         <v>2.88</v>
       </c>
       <c r="I16">
-        <f>SQRT(G16/440)</f>
+        <f t="shared" si="0"/>
         <v>2.883549180407972</v>
       </c>
     </row>
@@ -21085,14 +21079,14 @@
         <v>0.6</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4390.2439024390251</v>
       </c>
       <c r="H17">
         <v>3.16</v>
       </c>
       <c r="I17">
-        <f>SQRT(G17/440)</f>
+        <f t="shared" si="0"/>
         <v>3.1587698635699604</v>
       </c>
     </row>
@@ -21101,14 +21095,14 @@
         <v>0.7</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5121.9512195121952</v>
       </c>
       <c r="H18">
         <v>3.41</v>
       </c>
       <c r="I18">
-        <f>SQRT(G18/440)</f>
+        <f t="shared" si="0"/>
         <v>3.4118614019570139</v>
       </c>
     </row>
@@ -21117,14 +21111,14 @@
         <v>0.8</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5853.6585365853662</v>
       </c>
       <c r="H19">
         <v>3.64</v>
       </c>
       <c r="I19">
-        <f>SQRT(G19/440)</f>
+        <f t="shared" si="0"/>
         <v>3.6474332620803875</v>
       </c>
     </row>
@@ -21133,14 +21127,14 @@
         <v>0.9</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6585.3658536585372</v>
       </c>
       <c r="H20">
         <v>3.87</v>
       </c>
       <c r="I20">
-        <f>SQRT(G20/440)</f>
+        <f t="shared" si="0"/>
         <v>3.8686871903136182</v>
       </c>
     </row>
@@ -21149,14 +21143,14 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7317.0731707317082</v>
       </c>
       <c r="H21">
         <v>4.08</v>
       </c>
       <c r="I21">
-        <f>SQRT(G21/440)</f>
+        <f t="shared" si="0"/>
         <v>4.0779543587027769</v>
       </c>
     </row>
@@ -22283,7 +22277,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="25">
-        <f t="shared" ref="D83:D114" si="5">($D$45*C83-$D$46*E82)*$D$47</f>
+        <f t="shared" ref="D83:D104" si="5">($D$45*C83-$D$46*E82)*$D$47</f>
         <v>-74.425991397213593</v>
       </c>
       <c r="E83" s="25">

--- a/Doc/рассчет.xlsx
+++ b/Doc/рассчет.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="14190" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="14190" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="скорость" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="Руль2" sheetId="5" r:id="rId5"/>
     <sheet name="Руль3" sheetId="7" r:id="rId6"/>
     <sheet name="Винт" sheetId="6" r:id="rId7"/>
+    <sheet name="Ветер" sheetId="8" r:id="rId8"/>
+    <sheet name="Ветер2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="250">
   <si>
     <t>D</t>
   </si>
@@ -725,6 +727,51 @@
   </si>
   <si>
     <t>Нужно разделить действие Frud руля на 2 части, считать их независимо</t>
+  </si>
+  <si>
+    <t>Поляра</t>
+  </si>
+  <si>
+    <t>сила</t>
+  </si>
+  <si>
+    <t>момент</t>
+  </si>
+  <si>
+    <t>От какой оси отсчитывать угол?</t>
+  </si>
+  <si>
+    <t>Пусть, для единообразия, от Z, положительное направление по часовой стрелке (к оси X)</t>
+  </si>
+  <si>
+    <t>Алгоритм:</t>
+  </si>
+  <si>
+    <t>Получить скорость ветра в виде вектора</t>
+  </si>
+  <si>
+    <t>Перевести этот вектор из глобальной системы координат в связную</t>
+  </si>
+  <si>
+    <t>вычесть скорости самой яхты по X и Z</t>
+  </si>
+  <si>
+    <t>получить угол и величину</t>
+  </si>
+  <si>
+    <t>на основе формул найти момент и силу</t>
+  </si>
+  <si>
+    <t>добавить их в уравнения динамики</t>
+  </si>
+  <si>
+    <t>Навигационное направление ветра - угол от направления на север в ту сторону, куда дует ветер</t>
+  </si>
+  <si>
+    <t>Из общих соображений, должен быть купол, в начале и в конце 0</t>
+  </si>
+  <si>
+    <t>сила2</t>
   </si>
 </sst>
 </file>
@@ -1054,23 +1101,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="96531968"/>
-        <c:axId val="96533504"/>
+        <c:axId val="173857024"/>
+        <c:axId val="173858816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="96531968"/>
+        <c:axId val="173857024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96533504"/>
+        <c:crossAx val="173858816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="96533504"/>
+        <c:axId val="173858816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1078,7 +1125,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="96531968"/>
+        <c:crossAx val="173857024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1090,7 +1137,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1195,23 +1242,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="87830912"/>
-        <c:axId val="87832448"/>
+        <c:axId val="173879296"/>
+        <c:axId val="173880832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87830912"/>
+        <c:axId val="173879296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87832448"/>
+        <c:crossAx val="173880832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="87832448"/>
+        <c:axId val="173880832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1266,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87830912"/>
+        <c:crossAx val="173879296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1231,7 +1278,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1461,23 +1508,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87853696"/>
-        <c:axId val="88281472"/>
+        <c:axId val="173902080"/>
+        <c:axId val="173932544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87853696"/>
+        <c:axId val="173902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88281472"/>
+        <c:crossAx val="173932544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88281472"/>
+        <c:axId val="173932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1485,20 +1532,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87853696"/>
+        <c:crossAx val="173902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2240,23 +2286,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="88421120"/>
-        <c:axId val="88422656"/>
+        <c:axId val="173994368"/>
+        <c:axId val="173995904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="88421120"/>
+        <c:axId val="173994368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88422656"/>
+        <c:crossAx val="173995904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="88422656"/>
+        <c:axId val="173995904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2264,7 +2310,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88421120"/>
+        <c:crossAx val="173994368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2276,7 +2322,1004 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>сила</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="177912064"/>
+        <c:axId val="177930240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177912064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177930240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177930240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177912064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>момент</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="5"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="177955200"/>
+        <c:axId val="177956736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="177955200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177956736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="177956736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="177955200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер2!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>сила</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер2!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер2!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер2!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>момент</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="log"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="linear"/>
+          </c:trendline>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:intercept val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер2!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер2!$C$3:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="172837120"/>
+        <c:axId val="171975808"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="172837120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="171975808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="171975808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="172837120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер2!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>сила2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер2!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер2!$K$3:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83950617283950635</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5802469135802468</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7654320987654319</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.2098765432098766</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5555555555555554</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8024691358024691</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9506172839506171</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.9506172839506171</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.8024691358024691</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.5555555555555558</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.2098765432098766</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7654320987654319</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2222222222222219</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5802469135802477</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.83950617283950635</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="87135360"/>
+        <c:axId val="178048384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="87135360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178048384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178048384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="87135360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2409,6 +3452,136 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -20900,7 +22073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
@@ -22731,4 +23904,996 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>6.5</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <v>6.5</v>
+      </c>
+      <c r="C14">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>1.5</v>
+      </c>
+      <c r="C20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="B32" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="B33" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="B39" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>246</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="16" customFormat="1">
+      <c r="A2" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>0.00000007*A3*A3*A3*A3-0.00003*A3*A3*A3+0.002*A3*A3-0.007*A3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>A3/90</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>G3-1</f>
+        <v>-1</v>
+      </c>
+      <c r="I3">
+        <f>-H3*H3</f>
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <f>I3+1</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>J3*4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0.1</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E21" si="0">0.00000007*A4*A4*A4*A4-0.00003*A4*A4*A4+0.002*A4*A4-0.007*A4</f>
+        <v>0.10070000000000001</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G21" si="1">A4/90</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H21" si="2">G4-1</f>
+        <v>-0.88888888888888884</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I21" si="3">-H4*H4</f>
+        <v>-0.79012345679012341</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J21" si="4">I4+1</f>
+        <v>0.20987654320987659</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K21" si="5">J4*4</f>
+        <v>0.83950617283950635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>20</v>
+      </c>
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.43120000000000003</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.22222222222222221</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>-0.77777777777777779</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>-0.60493827160493829</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.39506172839506171</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>1.5802469135802468</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.8367</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>-0.66666666666666674</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>-0.44444444444444453</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>2.2222222222222219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>40</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1.1792000000000002</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>-0.55555555555555558</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>-0.30864197530864201</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.69135802469135799</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>2.7654320987654319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.3374999999999999</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>-0.44444444444444442</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>-0.19753086419753085</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.80246913580246915</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>3.2098765432098766</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>3.5</v>
+      </c>
+      <c r="C9">
+        <v>3.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.2072000000000003</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>-0.33333333333333337</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>-0.11111111111111113</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>3.5555555555555554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>3.8</v>
+      </c>
+      <c r="C10">
+        <v>3.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.70070000000000143</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>-0.22222222222222221</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>-4.9382716049382713E-2</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.95061728395061729</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>3.8024691358024691</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>80</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-0.25279999999999836</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>-0.11111111111111116</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>-1.234567901234569E-2</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>3.9506172839506171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>90</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>-1.7073000000000009</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>100</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>-3.7</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0.11111111111111116</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>-1.234567901234569E-2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.98765432098765427</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>3.9506172839506171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14">
+        <v>3.8</v>
+      </c>
+      <c r="C14">
+        <v>3.8</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>-6.2513000000000005</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0.22222222222222232</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>-4.9382716049382762E-2</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.95061728395061729</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>3.8024691358024691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>120</v>
+      </c>
+      <c r="B15">
+        <v>3.5</v>
+      </c>
+      <c r="C15">
+        <v>3.5</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>-9.3647999999999989</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333326</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>-0.11111111111111106</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>3.5555555555555558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>130</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>-13.027299999999993</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>-0.19753086419753085</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.80246913580246915</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>3.2098765432098766</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>140</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>-17.208799999999986</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>1.5555555555555556</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>-0.30864197530864201</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.69135802469135799</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>2.7654320987654319</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>-21.862500000000001</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666674</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>-0.44444444444444453</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.55555555555555547</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>2.2222222222222219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>160</v>
+      </c>
+      <c r="B19">
+        <v>0.5</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>-26.924799999999987</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>1.7777777777777777</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0.77777777777777768</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>-0.60493827160493807</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.39506172839506193</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>1.5802469135802477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>170</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>0.1</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>-32.315300000000015</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>1.8888888888888888</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>-0.79012345679012341</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.20987654320987659</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>0.83950617283950635</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>-37.936800000000012</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>-1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Doc/рассчет.xlsx
+++ b/Doc/рассчет.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="14190" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="28695" windowHeight="14190" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="скорость" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Винт" sheetId="6" r:id="rId7"/>
     <sheet name="Ветер" sheetId="8" r:id="rId8"/>
     <sheet name="Ветер2" sheetId="9" r:id="rId9"/>
+    <sheet name="ObiRope" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="263">
   <si>
     <t>D</t>
   </si>
@@ -772,6 +773,45 @@
   </si>
   <si>
     <t>сила2</t>
+  </si>
+  <si>
+    <t>Тянутся</t>
+  </si>
+  <si>
+    <t>Закрепляются к GameObject</t>
+  </si>
+  <si>
+    <t>Если к GameObject приделать ObiCollider то он сталкивается с веревкой</t>
+  </si>
+  <si>
+    <t>Могу определять координаты столкновения</t>
+  </si>
+  <si>
+    <t>Как программно сохранять и восстанавливать положение каната?</t>
+  </si>
+  <si>
+    <t>Как программно закреплять канат?</t>
+  </si>
+  <si>
+    <t>Кидать - анимация броска</t>
+  </si>
+  <si>
+    <t>не делаем пока</t>
+  </si>
+  <si>
+    <t>Как сохранять - понятно, см пример демпфирование RopeDemp</t>
+  </si>
+  <si>
+    <t>Канат слишком упругий и долго колеблеться не останавливаясь</t>
+  </si>
+  <si>
+    <t>Сделал демпфирование - плавно гашу скорость</t>
+  </si>
+  <si>
+    <t>Цепь</t>
+  </si>
+  <si>
+    <t>Строить ломаную по колайдерам, чтобы правильно считать силы</t>
   </si>
 </sst>
 </file>
@@ -1101,23 +1141,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="173857024"/>
-        <c:axId val="173858816"/>
+        <c:axId val="86099072"/>
+        <c:axId val="86100608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173857024"/>
+        <c:axId val="86099072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173858816"/>
+        <c:crossAx val="86100608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173858816"/>
+        <c:axId val="86100608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1165,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173857024"/>
+        <c:crossAx val="86099072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1137,7 +1177,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1242,23 +1282,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="173879296"/>
-        <c:axId val="173880832"/>
+        <c:axId val="90593920"/>
+        <c:axId val="90603904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173879296"/>
+        <c:axId val="90593920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173880832"/>
+        <c:crossAx val="90603904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173880832"/>
+        <c:axId val="90603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1306,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173879296"/>
+        <c:crossAx val="90593920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1278,7 +1318,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1508,23 +1548,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="173902080"/>
-        <c:axId val="173932544"/>
+        <c:axId val="106062976"/>
+        <c:axId val="106064512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173902080"/>
+        <c:axId val="106062976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173932544"/>
+        <c:crossAx val="106064512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173932544"/>
+        <c:axId val="106064512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1532,7 +1572,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173902080"/>
+        <c:crossAx val="106062976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1544,7 +1584,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2286,23 +2326,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="173994368"/>
-        <c:axId val="173995904"/>
+        <c:axId val="111094784"/>
+        <c:axId val="111096576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173994368"/>
+        <c:axId val="111094784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173995904"/>
+        <c:crossAx val="111096576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173995904"/>
+        <c:axId val="111096576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2350,216 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173994368"/>
+        <c:crossAx val="111094784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="ru-RU"/>
+  <c:chart>
+    <c:title/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Ветер!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>сила</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="4"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Ветер!$A$3:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>180</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Ветер!$B$3:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+        </c:ser>
+        <c:axId val="110961792"/>
+        <c:axId val="110963328"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="110961792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110963328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="110963328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="110961792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2328,226 +2577,11 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="ru-RU"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Ветер!$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>сила</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:trendline>
-            <c:trendlineType val="poly"/>
-            <c:order val="4"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Ветер!$A$3:$A$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>180</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Ветер!$B$3:$B$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="177912064"/>
-        <c:axId val="177930240"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="177912064"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177930240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="177930240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177912064"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -2574,7 +2608,6 @@
             <c:order val="5"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2711,23 +2744,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="177955200"/>
-        <c:axId val="177956736"/>
+        <c:axId val="110984192"/>
+        <c:axId val="111010560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="177955200"/>
+        <c:axId val="110984192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177956736"/>
+        <c:crossAx val="111010560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177956736"/>
+        <c:axId val="111010560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2735,20 +2768,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177955200"/>
+        <c:crossAx val="110984192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2941,7 +2973,6 @@
             <c:intercept val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -3078,23 +3109,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="172837120"/>
-        <c:axId val="171975808"/>
+        <c:axId val="111185920"/>
+        <c:axId val="111187456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="172837120"/>
+        <c:axId val="111185920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="171975808"/>
+        <c:crossAx val="111187456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171975808"/>
+        <c:axId val="111187456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3102,20 +3133,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="172837120"/>
+        <c:crossAx val="111185920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3125,9 +3155,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="ru-RU"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -3282,23 +3310,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="87135360"/>
-        <c:axId val="178048384"/>
+        <c:axId val="111207168"/>
+        <c:axId val="111208704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="87135360"/>
+        <c:axId val="111207168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178048384"/>
+        <c:crossAx val="111208704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178048384"/>
+        <c:axId val="111208704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3306,20 +3334,19 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="87135360"/>
+        <c:crossAx val="111207168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19502,6 +19529,80 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="L1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="L2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="L3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="B7" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="B8" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="B10" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N34"/>
@@ -24201,7 +24302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>

--- a/Doc/рассчет.xlsx
+++ b/Doc/рассчет.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="269">
   <si>
     <t>D</t>
   </si>
@@ -793,15 +793,6 @@
     <t>Как программно закреплять канат?</t>
   </si>
   <si>
-    <t>Кидать - анимация броска</t>
-  </si>
-  <si>
-    <t>не делаем пока</t>
-  </si>
-  <si>
-    <t>Как сохранять - понятно, см пример демпфирование RopeDemp</t>
-  </si>
-  <si>
     <t>Канат слишком упругий и долго колеблеться не останавливаясь</t>
   </si>
   <si>
@@ -812,6 +803,47 @@
   </si>
   <si>
     <t>Строить ломаную по колайдерам, чтобы правильно считать силы</t>
+  </si>
+  <si>
+    <t>Отлавливаются все столкновения для Solver, а не для Rope! - то есть, там надо встроить логику</t>
+  </si>
+  <si>
+    <t>Разрыв каната</t>
+  </si>
+  <si>
+    <t>загружаю координаты и скорости частиц и координаты и ротейшены прикрепленных тел</t>
+  </si>
+  <si>
+    <t>DetectCol</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Как сохранять - понятно, см пример демпфирование </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>RopeDemp</t>
+    </r>
+  </si>
+  <si>
+    <t>RopeSave</t>
+  </si>
+  <si>
+    <t>Еще, есть пример сохранения в BluePrint и загрузки из него же, может это более правильно</t>
+  </si>
+  <si>
+    <t>http://obi.virtualmethodstudio.com/forum/showthread.php?tid=1506</t>
+  </si>
+  <si>
+    <t>Как метнуть бухту или просто канат</t>
   </si>
 </sst>
 </file>
@@ -822,7 +854,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,6 +911,15 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -929,7 +970,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -959,6 +1000,7 @@
     <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
@@ -1141,23 +1183,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="86099072"/>
-        <c:axId val="86100608"/>
+        <c:axId val="123403648"/>
+        <c:axId val="124933248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="86099072"/>
+        <c:axId val="123403648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86100608"/>
+        <c:crossAx val="124933248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="86100608"/>
+        <c:axId val="124933248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1165,7 +1207,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86099072"/>
+        <c:crossAx val="123403648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1177,7 +1219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1282,23 +1324,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="90593920"/>
-        <c:axId val="90603904"/>
+        <c:axId val="124941440"/>
+        <c:axId val="124942976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="90593920"/>
+        <c:axId val="124941440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90603904"/>
+        <c:crossAx val="124942976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="90603904"/>
+        <c:axId val="124942976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1348,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90593920"/>
+        <c:crossAx val="124941440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1318,7 +1360,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1548,23 +1590,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="106062976"/>
-        <c:axId val="106064512"/>
+        <c:axId val="124976512"/>
+        <c:axId val="155600000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="106062976"/>
+        <c:axId val="124976512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106064512"/>
+        <c:crossAx val="155600000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="106064512"/>
+        <c:axId val="155600000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1572,7 +1614,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106062976"/>
+        <c:crossAx val="124976512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1584,7 +1626,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2326,23 +2368,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="111094784"/>
-        <c:axId val="111096576"/>
+        <c:axId val="155690496"/>
+        <c:axId val="155692032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111094784"/>
+        <c:axId val="155690496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111096576"/>
+        <c:crossAx val="155692032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111096576"/>
+        <c:axId val="155692032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2350,7 +2392,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111094784"/>
+        <c:crossAx val="155690496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2362,7 +2404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2535,23 +2577,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="110961792"/>
-        <c:axId val="110963328"/>
+        <c:axId val="155852160"/>
+        <c:axId val="155853952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110961792"/>
+        <c:axId val="155852160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110963328"/>
+        <c:crossAx val="155853952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="110963328"/>
+        <c:axId val="155853952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2601,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110961792"/>
+        <c:crossAx val="155852160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2571,7 +2613,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2744,23 +2786,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="110984192"/>
-        <c:axId val="111010560"/>
+        <c:axId val="155903488"/>
+        <c:axId val="155905024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="110984192"/>
+        <c:axId val="155903488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111010560"/>
+        <c:crossAx val="155905024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111010560"/>
+        <c:axId val="155905024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2768,7 +2810,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="110984192"/>
+        <c:crossAx val="155903488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2780,7 +2822,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3109,23 +3151,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="111185920"/>
-        <c:axId val="111187456"/>
+        <c:axId val="156055808"/>
+        <c:axId val="156061696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111185920"/>
+        <c:axId val="156055808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111187456"/>
+        <c:crossAx val="156061696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111187456"/>
+        <c:axId val="156061696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3133,7 +3175,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111185920"/>
+        <c:crossAx val="156055808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3145,7 +3187,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3310,23 +3352,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="111207168"/>
-        <c:axId val="111208704"/>
+        <c:axId val="156068864"/>
+        <c:axId val="156095232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="111207168"/>
+        <c:axId val="156068864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111208704"/>
+        <c:crossAx val="156095232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="111208704"/>
+        <c:axId val="156095232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3334,7 +3376,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="111207168"/>
+        <c:crossAx val="156068864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3346,7 +3388,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19531,75 +19573,113 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="L1" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="L2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="L3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
+      <c r="F4" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="M4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="B5" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="M5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
-      <c r="B7" s="13" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="B8" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="B10" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" t="s">
-        <v>255</v>
+    <row r="11" spans="1:13">
+      <c r="B11" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="L12" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="C14" s="12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C14" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/рассчет.xlsx
+++ b/Doc/рассчет.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="271">
   <si>
     <t>D</t>
   </si>
@@ -844,6 +844,12 @@
   </si>
   <si>
     <t>Как метнуть бухту или просто канат</t>
+  </si>
+  <si>
+    <t>Сделал установкой Velocitie всем частицам</t>
+  </si>
+  <si>
+    <t>Основная проблема - создать исходную бухту. Она начинает шевелится пока не придет в состояние равновесия</t>
   </si>
 </sst>
 </file>
@@ -1183,23 +1189,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="123403648"/>
-        <c:axId val="124933248"/>
+        <c:axId val="162452608"/>
+        <c:axId val="162454528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="123403648"/>
+        <c:axId val="162452608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124933248"/>
+        <c:crossAx val="162454528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124933248"/>
+        <c:axId val="162454528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1207,7 +1213,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="123403648"/>
+        <c:crossAx val="162452608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1219,7 +1225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1324,23 +1330,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="124941440"/>
-        <c:axId val="124942976"/>
+        <c:axId val="178134016"/>
+        <c:axId val="178152192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124941440"/>
+        <c:axId val="178134016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124942976"/>
+        <c:crossAx val="178152192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124942976"/>
+        <c:axId val="178152192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1348,7 +1354,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124941440"/>
+        <c:crossAx val="178134016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1360,7 +1366,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1590,23 +1596,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="124976512"/>
-        <c:axId val="155600000"/>
+        <c:axId val="179189248"/>
+        <c:axId val="179190784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124976512"/>
+        <c:axId val="179189248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155600000"/>
+        <c:crossAx val="179190784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155600000"/>
+        <c:axId val="179190784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1620,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124976512"/>
+        <c:crossAx val="179189248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1626,7 +1632,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2368,23 +2374,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="155690496"/>
-        <c:axId val="155692032"/>
+        <c:axId val="179264896"/>
+        <c:axId val="179270784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155690496"/>
+        <c:axId val="179264896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155692032"/>
+        <c:crossAx val="179270784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155692032"/>
+        <c:axId val="179270784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2392,7 +2398,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155690496"/>
+        <c:crossAx val="179264896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2404,7 +2410,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000122" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000122" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000133" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000133" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2577,23 +2583,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155852160"/>
-        <c:axId val="155853952"/>
+        <c:axId val="179373568"/>
+        <c:axId val="179375104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155852160"/>
+        <c:axId val="179373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155853952"/>
+        <c:crossAx val="179375104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155853952"/>
+        <c:axId val="179375104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2601,7 +2607,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155852160"/>
+        <c:crossAx val="179373568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2613,7 +2619,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2786,23 +2792,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="155903488"/>
-        <c:axId val="155905024"/>
+        <c:axId val="179408256"/>
+        <c:axId val="179414144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="155903488"/>
+        <c:axId val="179408256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155905024"/>
+        <c:crossAx val="179414144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="155905024"/>
+        <c:axId val="179414144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2810,7 +2816,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155903488"/>
+        <c:crossAx val="179408256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2822,7 +2828,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3151,23 +3157,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="156055808"/>
-        <c:axId val="156061696"/>
+        <c:axId val="179499392"/>
+        <c:axId val="179500928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156055808"/>
+        <c:axId val="179499392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156061696"/>
+        <c:crossAx val="179500928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156061696"/>
+        <c:axId val="179500928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3181,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156055808"/>
+        <c:crossAx val="179499392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3187,7 +3193,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3352,23 +3358,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="156068864"/>
-        <c:axId val="156095232"/>
+        <c:axId val="179545216"/>
+        <c:axId val="179546752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="156068864"/>
+        <c:axId val="179545216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156095232"/>
+        <c:crossAx val="179546752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="156095232"/>
+        <c:axId val="179546752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,7 +3382,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156068864"/>
+        <c:crossAx val="179545216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3388,7 +3394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -19573,10 +19579,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19594,7 +19600,7 @@
         <v>251</v>
       </c>
       <c r="M2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -19602,7 +19608,7 @@
         <v>252</v>
       </c>
       <c r="M3" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -19613,16 +19619,13 @@
         <v>263</v>
       </c>
       <c r="M4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="M5" t="s">
-        <v>258</v>
-      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="1"/>
@@ -19672,6 +19675,21 @@
     <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" s="3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
